--- a/data/trans_orig/P36B06_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>196512</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>181212</v>
+        <v>181422</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>211070</v>
+        <v>210846</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7197983426843169</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6637541714774139</v>
+        <v>0.664524787318817</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7731227627979891</v>
+        <v>0.7723012389848265</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>194</v>
@@ -764,19 +764,19 @@
         <v>209053</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>195061</v>
+        <v>194241</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>221732</v>
+        <v>222129</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.801467966459481</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7478241848263552</v>
+        <v>0.7446813373862501</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8500758156101206</v>
+        <v>0.8515983040218791</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>390</v>
@@ -785,19 +785,19 @@
         <v>405565</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>384373</v>
+        <v>385461</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>423608</v>
+        <v>426791</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7597021121631069</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7200041304660633</v>
+        <v>0.7220421787546699</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7934983812549529</v>
+        <v>0.7994616411386304</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>76498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>61940</v>
+        <v>62164</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>91798</v>
+        <v>91588</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2802016573156831</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2268772372020108</v>
+        <v>0.2276987610151734</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3362458285225859</v>
+        <v>0.3354752126811828</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>51</v>
@@ -835,19 +835,19 @@
         <v>51785</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39106</v>
+        <v>38709</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65777</v>
+        <v>66597</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.198532033540519</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1499241843898796</v>
+        <v>0.1484016959781208</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2521758151736453</v>
+        <v>0.2553186626137499</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>126</v>
@@ -856,19 +856,19 @@
         <v>128283</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>110240</v>
+        <v>107057</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>149475</v>
+        <v>148387</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2402978878368932</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2065016187450469</v>
+        <v>0.2005383588613695</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2799958695339362</v>
+        <v>0.2779578212453292</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>350977</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>328394</v>
+        <v>331396</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>370261</v>
+        <v>371035</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7146970102808393</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6687106343408186</v>
+        <v>0.6748246300637061</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7539645548426311</v>
+        <v>0.7555410508555179</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>365</v>
@@ -981,19 +981,19 @@
         <v>369626</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>347656</v>
+        <v>349226</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>388677</v>
+        <v>387432</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.733459395396664</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6898638282869967</v>
+        <v>0.6929789580797354</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.771262112439659</v>
+        <v>0.7687911429418482</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>694</v>
@@ -1002,19 +1002,19 @@
         <v>720603</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>690024</v>
+        <v>691201</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>747648</v>
+        <v>748896</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7241994867603024</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.693467898731325</v>
+        <v>0.6946504585377837</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7513794576337173</v>
+        <v>0.7526333639802211</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>140108</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>120824</v>
+        <v>120050</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>162691</v>
+        <v>159689</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2853029897191607</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2460354451573689</v>
+        <v>0.2444589491444822</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3312893656591813</v>
+        <v>0.325175369936294</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>134</v>
@@ -1052,19 +1052,19 @@
         <v>134323</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>115272</v>
+        <v>116517</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>156293</v>
+        <v>154723</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.266540604603336</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2287378875603409</v>
+        <v>0.2312088570581521</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3101361717130033</v>
+        <v>0.307021041920265</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>268</v>
@@ -1073,19 +1073,19 @@
         <v>274431</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>247386</v>
+        <v>246138</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>305010</v>
+        <v>303833</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2758005132396976</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2486205423662826</v>
+        <v>0.2473666360197788</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3065321012686751</v>
+        <v>0.3053495414622159</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>257001</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>242394</v>
+        <v>242358</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>270719</v>
+        <v>270474</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8060337969671449</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7602225909515308</v>
+        <v>0.7601101934331914</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8490587791516906</v>
+        <v>0.8482916619496612</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>300</v>
@@ -1198,19 +1198,19 @@
         <v>301158</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>288513</v>
+        <v>289197</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>311143</v>
+        <v>310567</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8978759039850132</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8601751019073004</v>
+        <v>0.8622137969611496</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9276455017350546</v>
+        <v>0.9259264675760145</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>551</v>
@@ -1219,19 +1219,19 @@
         <v>558159</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>538289</v>
+        <v>539874</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>576916</v>
+        <v>575051</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8531175912062331</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8227473859572115</v>
+        <v>0.8251706437519047</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8817864416527932</v>
+        <v>0.8789368538442356</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>61845</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>48127</v>
+        <v>48372</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>76452</v>
+        <v>76488</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1939662030328551</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1509412208483094</v>
+        <v>0.1517083380503388</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2397774090484692</v>
+        <v>0.2398898065668086</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -1269,19 +1269,19 @@
         <v>34254</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24269</v>
+        <v>24845</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46899</v>
+        <v>46215</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1021240960149868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07235449826494543</v>
+        <v>0.07407353242398565</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1398248980926996</v>
+        <v>0.1377862030388507</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>94</v>
@@ -1290,19 +1290,19 @@
         <v>96099</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>77342</v>
+        <v>79207</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>115969</v>
+        <v>114384</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1468824087937669</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1182135583472068</v>
+        <v>0.1210631461557646</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1772526140427885</v>
+        <v>0.1748293562480954</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>299558</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>285158</v>
+        <v>284212</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>312531</v>
+        <v>312604</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.835189964567956</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.795041495578648</v>
+        <v>0.7924037277414488</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.871358273061607</v>
+        <v>0.8715612564488854</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>346</v>
@@ -1415,19 +1415,19 @@
         <v>334384</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>321181</v>
+        <v>322466</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>343642</v>
+        <v>344679</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9001981890386175</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8646538372928495</v>
+        <v>0.8681134176088521</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9251223448936745</v>
+        <v>0.9279144982213692</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>647</v>
@@ -1436,19 +1436,19 @@
         <v>633942</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>615031</v>
+        <v>613476</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>652721</v>
+        <v>650576</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8682632384068674</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8423613637409174</v>
+        <v>0.8402323220704457</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8939822184998082</v>
+        <v>0.8910445733722062</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>59113</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46140</v>
+        <v>46067</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>73513</v>
+        <v>74459</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.164810035432044</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1286417269383928</v>
+        <v>0.1284387435511151</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.204958504421352</v>
+        <v>0.2075962722585512</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -1486,19 +1486,19 @@
         <v>37072</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27814</v>
+        <v>26777</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>50275</v>
+        <v>48990</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09980181096138253</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07487765510632541</v>
+        <v>0.07208550177863075</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1353461627071504</v>
+        <v>0.1318865823911479</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>99</v>
@@ -1507,19 +1507,19 @@
         <v>96185</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>77406</v>
+        <v>79551</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>115096</v>
+        <v>116651</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1317367615931326</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1060177815001924</v>
+        <v>0.1089554266277944</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1576386362590829</v>
+        <v>0.1597676779295554</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>133321</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>119227</v>
+        <v>119536</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>146175</v>
+        <v>147177</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6557580518054494</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.586437087122387</v>
+        <v>0.5879559242792886</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7189835458752776</v>
+        <v>0.7239118660218515</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>139</v>
@@ -1632,19 +1632,19 @@
         <v>146766</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>132360</v>
+        <v>133240</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>159342</v>
+        <v>160174</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7067347283624238</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6373612550401471</v>
+        <v>0.6415997589333612</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7672920977799224</v>
+        <v>0.7712986606655008</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>274</v>
@@ -1653,19 +1653,19 @@
         <v>280087</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>260352</v>
+        <v>260721</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>297890</v>
+        <v>297502</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6815167902290754</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6334972277288139</v>
+        <v>0.6343948051947084</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7248357630409311</v>
+        <v>0.7238909849622879</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>69987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>57133</v>
+        <v>56131</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>84081</v>
+        <v>83772</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3442419481945506</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2810164541247224</v>
+        <v>0.2760881339781481</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4135629128776125</v>
+        <v>0.4120440757207115</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>59</v>
@@ -1703,19 +1703,19 @@
         <v>60902</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48326</v>
+        <v>47494</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75308</v>
+        <v>74428</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2932652716375762</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2327079022200777</v>
+        <v>0.2287013393344992</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3626387449598534</v>
+        <v>0.3584002410666389</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>130</v>
@@ -1724,19 +1724,19 @@
         <v>130889</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>113086</v>
+        <v>113474</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>150624</v>
+        <v>150255</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3184832097709246</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2751642369590688</v>
+        <v>0.2761090150377124</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3665027722711866</v>
+        <v>0.3656051948052921</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>221889</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>208365</v>
+        <v>208292</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>232852</v>
+        <v>232989</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8193482849249794</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7694107069665215</v>
+        <v>0.769139929005712</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8598318616740459</v>
+        <v>0.8603364308186755</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>225</v>
@@ -1849,19 +1849,19 @@
         <v>232634</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>219284</v>
+        <v>219585</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>243934</v>
+        <v>243860</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8363794250102171</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7883838871843847</v>
+        <v>0.7894667129157988</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8770043781094211</v>
+        <v>0.876741029020114</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>443</v>
@@ -1870,19 +1870,19 @@
         <v>454522</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>436867</v>
+        <v>435416</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>471133</v>
+        <v>471770</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.827977606806322</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7958162134568704</v>
+        <v>0.7931723093537616</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8582358970594453</v>
+        <v>0.8593968220767598</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>48922</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37959</v>
+        <v>37822</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>62446</v>
+        <v>62519</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1806517150750206</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1401681383259542</v>
+        <v>0.1396635691813248</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2305892930334785</v>
+        <v>0.2308600709942879</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>45</v>
@@ -1920,19 +1920,19 @@
         <v>45510</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34210</v>
+        <v>34284</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>58860</v>
+        <v>58559</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1636205749897829</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.122995621890579</v>
+        <v>0.1232589709798872</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2116161128156154</v>
+        <v>0.2105332870842012</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>93</v>
@@ -1941,19 +1941,19 @@
         <v>94433</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>77822</v>
+        <v>77185</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>112088</v>
+        <v>113539</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.172022393193678</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1417641029405546</v>
+        <v>0.1406031779232402</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2041837865431296</v>
+        <v>0.2068276906462384</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>501150</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>479167</v>
+        <v>480166</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>520795</v>
+        <v>518668</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8148423881570483</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7790995037683456</v>
+        <v>0.7807238114170619</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8467845011711763</v>
+        <v>0.8433260233178246</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>528</v>
@@ -2066,19 +2066,19 @@
         <v>545646</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>525240</v>
+        <v>526704</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>560952</v>
+        <v>563395</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8562598060773619</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8242384475558319</v>
+        <v>0.8265351711728413</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8802790874477682</v>
+        <v>0.8841140270532762</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1012</v>
@@ -2087,19 +2087,19 @@
         <v>1046796</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1019114</v>
+        <v>1016210</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1071848</v>
+        <v>1071507</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8359184880872266</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8138129924322148</v>
+        <v>0.811494382116692</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8559243461166292</v>
+        <v>0.8556521188346494</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>113877</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>94232</v>
+        <v>96359</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>135860</v>
+        <v>134861</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1851576118429517</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1532154988288238</v>
+        <v>0.1566739766821755</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2209004962316546</v>
+        <v>0.2192761885829381</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>92</v>
@@ -2137,19 +2137,19 @@
         <v>91597</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>76291</v>
+        <v>73848</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>112003</v>
+        <v>110539</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1437401939226382</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1197209125522316</v>
+        <v>0.1158859729467233</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1757615524441678</v>
+        <v>0.1734648288271587</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>206</v>
@@ -2158,19 +2158,19 @@
         <v>205474</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>180422</v>
+        <v>180763</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>233156</v>
+        <v>236060</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1640815119127734</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1440756538833709</v>
+        <v>0.1443478811653507</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1861870075677853</v>
+        <v>0.188505617883308</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>535545</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>511190</v>
+        <v>511422</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>561798</v>
+        <v>561289</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7208719899302832</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.68808822082844</v>
+        <v>0.6884009325320893</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7562095517782981</v>
+        <v>0.7555240623663847</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>586</v>
@@ -2283,19 +2283,19 @@
         <v>617167</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>594983</v>
+        <v>593868</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>640113</v>
+        <v>641061</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.788761397636406</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7604090274457903</v>
+        <v>0.7589837649468724</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8180872338424577</v>
+        <v>0.8192980392505587</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1119</v>
@@ -2304,19 +2304,19 @@
         <v>1152712</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1118226</v>
+        <v>1118123</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1187332</v>
+        <v>1186283</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7556965520263215</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7330878095618882</v>
+        <v>0.7330206658914893</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7783928018482427</v>
+        <v>0.7777050034563761</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>207368</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>181115</v>
+        <v>181624</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>231723</v>
+        <v>231491</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2791280100697168</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2437904482217019</v>
+        <v>0.2444759376336151</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.31191177917156</v>
+        <v>0.3115990674679107</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>158</v>
@@ -2354,19 +2354,19 @@
         <v>165284</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>142338</v>
+        <v>141390</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>187468</v>
+        <v>188583</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.211238602363594</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1819127661575418</v>
+        <v>0.1807019607494413</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2395909725542094</v>
+        <v>0.2410162350531277</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>360</v>
@@ -2375,19 +2375,19 @@
         <v>372652</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>338032</v>
+        <v>339081</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>407138</v>
+        <v>407241</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2443034479736785</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2216071981517573</v>
+        <v>0.2222949965436238</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.266912190438111</v>
+        <v>0.2669793341085106</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>2495953</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2446361</v>
+        <v>2447686</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2541360</v>
+        <v>2541805</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7624324004727626</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7472838513074984</v>
+        <v>0.7476885112648533</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.776302676384144</v>
+        <v>0.7764388177083755</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2683</v>
@@ -2500,19 +2500,19 @@
         <v>2756435</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2709991</v>
+        <v>2707242</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2799814</v>
+        <v>2797331</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8161987660817052</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8024462380335544</v>
+        <v>0.8016321527696091</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8290435107601938</v>
+        <v>0.8283081018421964</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5130</v>
@@ -2521,19 +2521,19 @@
         <v>5252388</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5181160</v>
+        <v>5190210</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5318619</v>
+        <v>5314565</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7897339003306083</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7790242503005844</v>
+        <v>0.7803849106857826</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7996922178556836</v>
+        <v>0.7990826702231252</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>777718</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>732311</v>
+        <v>731866</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>827310</v>
+        <v>825985</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2375675995272374</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2236973236158561</v>
+        <v>0.2235611822916247</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2527161486925016</v>
+        <v>0.2523114887351468</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>612</v>
@@ -2571,19 +2571,19 @@
         <v>620727</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>577348</v>
+        <v>579831</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>667171</v>
+        <v>669920</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1838012339182948</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1709564892398062</v>
+        <v>0.1716918981578034</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1975537619664456</v>
+        <v>0.1983678472303909</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1376</v>
@@ -2592,19 +2592,19 @@
         <v>1398445</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1332214</v>
+        <v>1336268</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1469673</v>
+        <v>1460623</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2102660996693916</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2003077821443166</v>
+        <v>0.200917329776875</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2209757496994156</v>
+        <v>0.2196150893142173</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>220254</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>203517</v>
+        <v>204185</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>233843</v>
+        <v>234355</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7472882831113767</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6905022828971076</v>
+        <v>0.6927678402642767</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.793392080015532</v>
+        <v>0.7951284161579344</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>196</v>
@@ -2961,19 +2961,19 @@
         <v>220893</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>204471</v>
+        <v>203981</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>234946</v>
+        <v>234292</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7750476240864294</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7174278638773768</v>
+        <v>0.7157084387583068</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.824353202038689</v>
+        <v>0.8220591605519119</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>404</v>
@@ -2982,19 +2982,19 @@
         <v>441147</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>421187</v>
+        <v>417638</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>463406</v>
+        <v>461579</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.760934969025803</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7265046444667248</v>
+        <v>0.7203835874078915</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7993279977610153</v>
+        <v>0.7961777987092798</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>74484</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60895</v>
+        <v>60383</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>91221</v>
+        <v>90553</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2527117168886233</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.206607919984468</v>
+        <v>0.2048715838420656</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3094977171028924</v>
+        <v>0.3072321597357233</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>58</v>
@@ -3032,19 +3032,19 @@
         <v>64113</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50060</v>
+        <v>50714</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>80535</v>
+        <v>81025</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2249523759135707</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.175646797961311</v>
+        <v>0.1779408394480881</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2825721361226232</v>
+        <v>0.284291561241693</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>132</v>
@@ -3053,19 +3053,19 @@
         <v>138597</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>116338</v>
+        <v>118165</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>158557</v>
+        <v>162106</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.239065030974197</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2006720022389847</v>
+        <v>0.2038222012907204</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2734953555332759</v>
+        <v>0.2796164125921087</v>
       </c>
     </row>
     <row r="6">
@@ -3157,19 +3157,19 @@
         <v>430235</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>412973</v>
+        <v>410098</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>444831</v>
+        <v>444557</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8528167230573317</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8185996971576952</v>
+        <v>0.8129012544129289</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8817495462289027</v>
+        <v>0.8812063381989139</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>419</v>
@@ -3178,19 +3178,19 @@
         <v>460068</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>444735</v>
+        <v>443985</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>472973</v>
+        <v>473089</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8783869864060579</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8491112354808931</v>
+        <v>0.8476799260320771</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9030246523655512</v>
+        <v>0.9032460218393438</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>818</v>
@@ -3199,19 +3199,19 @@
         <v>890303</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>867512</v>
+        <v>866259</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>912376</v>
+        <v>910371</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8658415596938489</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8436763167824635</v>
+        <v>0.8424580316642686</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8873073968285584</v>
+        <v>0.8853577105411035</v>
       </c>
     </row>
     <row r="8">
@@ -3228,19 +3228,19 @@
         <v>74252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>59656</v>
+        <v>59930</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>91514</v>
+        <v>94389</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1471832769426683</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1182504537710972</v>
+        <v>0.1187936618010861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1814003028423049</v>
+        <v>0.187098745587071</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>61</v>
@@ -3249,19 +3249,19 @@
         <v>63697</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50792</v>
+        <v>50676</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>79030</v>
+        <v>79780</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1216130135939421</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09697534763444882</v>
+        <v>0.09675397816065631</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1508887645191072</v>
+        <v>0.152320073967923</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>133</v>
@@ -3270,19 +3270,19 @@
         <v>137949</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>115876</v>
+        <v>117881</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>160740</v>
+        <v>161993</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1341584403061511</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1126926031714419</v>
+        <v>0.1146422894588965</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1563236832175366</v>
+        <v>0.1575419683357314</v>
       </c>
     </row>
     <row r="9">
@@ -3374,19 +3374,19 @@
         <v>285474</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>273879</v>
+        <v>272917</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>295838</v>
+        <v>295421</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8809660097397218</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8451858793311769</v>
+        <v>0.8422180529125695</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9129512880682239</v>
+        <v>0.9116622384748344</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>294</v>
@@ -3395,19 +3395,19 @@
         <v>316283</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>304137</v>
+        <v>304178</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>324212</v>
+        <v>324437</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9301509909949287</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8944306070017156</v>
+        <v>0.8945511048323719</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9534699006570018</v>
+        <v>0.9541308824994505</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>573</v>
@@ -3416,19 +3416,19 @@
         <v>601756</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>587125</v>
+        <v>585241</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>616602</v>
+        <v>616846</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9061505768348962</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8841171825717755</v>
+        <v>0.8812805589566903</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9285059094530126</v>
+        <v>0.9288726227225146</v>
       </c>
     </row>
     <row r="11">
@@ -3445,19 +3445,19 @@
         <v>38572</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28208</v>
+        <v>28625</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>50167</v>
+        <v>51129</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1190339902602782</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0870487119317761</v>
+        <v>0.08833776152516556</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1548141206688231</v>
+        <v>0.1577819470874305</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -3466,19 +3466,19 @@
         <v>23751</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15822</v>
+        <v>15597</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35897</v>
+        <v>35856</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06984900900507127</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04653009934299827</v>
+        <v>0.04586911750054954</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1055693929982846</v>
+        <v>0.1054488951676291</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>62</v>
@@ -3487,19 +3487,19 @@
         <v>62324</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>47478</v>
+        <v>47234</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>76955</v>
+        <v>78839</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09384942316510375</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07149409054698744</v>
+        <v>0.07112737727748546</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1158828174282245</v>
+        <v>0.1187194410433096</v>
       </c>
     </row>
     <row r="12">
@@ -3591,19 +3591,19 @@
         <v>307943</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>291550</v>
+        <v>291415</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>322136</v>
+        <v>322810</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8234170955002793</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7795816809107895</v>
+        <v>0.7792226908981159</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8613670146283237</v>
+        <v>0.8631709513129151</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>343</v>
@@ -3612,19 +3612,19 @@
         <v>360776</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>349172</v>
+        <v>350033</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>370403</v>
+        <v>369629</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9275619549233938</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8977282433772571</v>
+        <v>0.8999409210293228</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9523137374693393</v>
+        <v>0.9503231194754811</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>626</v>
@@ -3633,19 +3633,19 @@
         <v>668719</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>648057</v>
+        <v>648666</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>685956</v>
+        <v>687107</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.87651119538275</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8494286337515229</v>
+        <v>0.8502261839915455</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8991045079088381</v>
+        <v>0.9006127612806777</v>
       </c>
     </row>
     <row r="14">
@@ -3662,19 +3662,19 @@
         <v>66039</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51846</v>
+        <v>51172</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>82432</v>
+        <v>82567</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1765829044997207</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1386329853716763</v>
+        <v>0.1368290486870849</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2204183190892104</v>
+        <v>0.2207773091018841</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -3683,19 +3683,19 @@
         <v>28175</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18548</v>
+        <v>19322</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39779</v>
+        <v>38918</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07243804507660619</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04768626253066064</v>
+        <v>0.04967688052451882</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1022717566227403</v>
+        <v>0.1000590789706772</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>89</v>
@@ -3704,19 +3704,19 @@
         <v>94214</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>76977</v>
+        <v>75826</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>114876</v>
+        <v>114267</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.12348880461725</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1008954920911618</v>
+        <v>0.09938723871932224</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.150571366248477</v>
+        <v>0.1497738160084545</v>
       </c>
     </row>
     <row r="15">
@@ -3808,19 +3808,19 @@
         <v>158376</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>145591</v>
+        <v>144557</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>170830</v>
+        <v>171460</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7448869862544839</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6847535231857157</v>
+        <v>0.6798907428783052</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8034580392515541</v>
+        <v>0.8064233502692886</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>183</v>
@@ -3829,19 +3829,19 @@
         <v>190930</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>180307</v>
+        <v>180657</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>199627</v>
+        <v>199783</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.869477862470218</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8211051186305115</v>
+        <v>0.8226962788717417</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9090840176919111</v>
+        <v>0.9097962332601479</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>329</v>
@@ -3850,19 +3850,19 @@
         <v>349306</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>330686</v>
+        <v>329529</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>363786</v>
+        <v>365517</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8081874557199962</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7651068055770993</v>
+        <v>0.7624295950971298</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8416899519164714</v>
+        <v>0.8456960165306001</v>
       </c>
     </row>
     <row r="17">
@@ -3879,19 +3879,19 @@
         <v>54242</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41788</v>
+        <v>41158</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>67027</v>
+        <v>68061</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2551130137455161</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1965419607484458</v>
+        <v>0.1935766497307114</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3152464768142841</v>
+        <v>0.3201092571216947</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -3900,19 +3900,19 @@
         <v>28661</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19964</v>
+        <v>19808</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39284</v>
+        <v>38934</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1305221375297821</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09091598230808898</v>
+        <v>0.09020376673985238</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1788948813694885</v>
+        <v>0.1773037211282584</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>79</v>
@@ -3921,19 +3921,19 @@
         <v>82903</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>68423</v>
+        <v>66692</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>101523</v>
+        <v>102680</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1918125442800039</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1583100480835284</v>
+        <v>0.1543039834693999</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2348931944229007</v>
+        <v>0.2375704049028703</v>
       </c>
     </row>
     <row r="18">
@@ -4025,19 +4025,19 @@
         <v>243566</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>231694</v>
+        <v>231525</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>252105</v>
+        <v>252193</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8921107945965725</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8486278264316751</v>
+        <v>0.8480103202199379</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.923386155492265</v>
+        <v>0.9237111310063022</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>240</v>
@@ -4046,19 +4046,19 @@
         <v>248477</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>234512</v>
+        <v>236962</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>257536</v>
+        <v>258109</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8907776705133824</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8407147580951245</v>
+        <v>0.8494959641337577</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9232521892487803</v>
+        <v>0.9253069205505438</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>470</v>
@@ -4067,19 +4067,19 @@
         <v>492043</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>475449</v>
+        <v>474928</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>505047</v>
+        <v>505274</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8914370816130949</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8613733873781833</v>
+        <v>0.8604296199774136</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9149967839472578</v>
+        <v>0.9154078878667735</v>
       </c>
     </row>
     <row r="20">
@@ -4096,19 +4096,19 @@
         <v>29456</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20917</v>
+        <v>20829</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41328</v>
+        <v>41497</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1078892054034275</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07661384450773509</v>
+        <v>0.07628886899369795</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1513721735683248</v>
+        <v>0.1519896797800621</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -4117,19 +4117,19 @@
         <v>30467</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21408</v>
+        <v>20835</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44432</v>
+        <v>41982</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1092223294866175</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07674781075121967</v>
+        <v>0.07469307944945619</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1592852419048755</v>
+        <v>0.1505040358662422</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>58</v>
@@ -4138,19 +4138,19 @@
         <v>59923</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>46919</v>
+        <v>46692</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>76517</v>
+        <v>77038</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1085629183869052</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08500321605274234</v>
+        <v>0.08459211213322664</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1386266126218169</v>
+        <v>0.1395703800225865</v>
       </c>
     </row>
     <row r="21">
@@ -4242,19 +4242,19 @@
         <v>561975</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>542441</v>
+        <v>542123</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>580049</v>
+        <v>579428</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8518321767972291</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8222233762551442</v>
+        <v>0.8217406519529225</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8792287665649825</v>
+        <v>0.8782875034045494</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>558</v>
@@ -4263,19 +4263,19 @@
         <v>606066</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>586355</v>
+        <v>585157</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>623003</v>
+        <v>623091</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8773042565000276</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8487717189693074</v>
+        <v>0.8470375519565749</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9018206565525146</v>
+        <v>0.9019480555522906</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1079</v>
@@ -4284,19 +4284,19 @@
         <v>1168041</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1142681</v>
+        <v>1141271</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1192777</v>
+        <v>1192979</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.864861519902444</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8460836418043048</v>
+        <v>0.8450399951465712</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8831766560549746</v>
+        <v>0.8833262933483503</v>
       </c>
     </row>
     <row r="23">
@@ -4313,19 +4313,19 @@
         <v>97750</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>79676</v>
+        <v>80297</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>117284</v>
+        <v>117602</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1481678232027709</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1207712334350175</v>
+        <v>0.1217124965954508</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1777766237448559</v>
+        <v>0.1782593480470779</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>76</v>
@@ -4334,19 +4334,19 @@
         <v>84762</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>67825</v>
+        <v>67737</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>104473</v>
+        <v>105671</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1226957434999723</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0981793434474854</v>
+        <v>0.09805194444771034</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1512282810306927</v>
+        <v>0.1529624480434257</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>170</v>
@@ -4355,19 +4355,19 @@
         <v>182512</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>157776</v>
+        <v>157574</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>207872</v>
+        <v>209282</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.135138480097556</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1168233439450254</v>
+        <v>0.1166737066516496</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1539163581956956</v>
+        <v>0.1549600048534286</v>
       </c>
     </row>
     <row r="24">
@@ -4459,19 +4459,19 @@
         <v>646457</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>624275</v>
+        <v>623808</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>665445</v>
+        <v>666415</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8297499947473691</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.801279286485346</v>
+        <v>0.8006792423387523</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8541220929366007</v>
+        <v>0.8553677453845138</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>657</v>
@@ -4480,19 +4480,19 @@
         <v>712366</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>690249</v>
+        <v>690916</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>730651</v>
+        <v>731118</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8646758125038749</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8378302748858489</v>
+        <v>0.8386401769354013</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8868705057862478</v>
+        <v>0.887436957359413</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1250</v>
@@ -4501,19 +4501,19 @@
         <v>1358822</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1328553</v>
+        <v>1323792</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1388474</v>
+        <v>1385416</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8477004716623018</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8288169484845889</v>
+        <v>0.8258470072907997</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8661988859620621</v>
+        <v>0.864290756801093</v>
       </c>
     </row>
     <row r="26">
@@ -4530,19 +4530,19 @@
         <v>132641</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>113653</v>
+        <v>112683</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>154823</v>
+        <v>155290</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1702500052526309</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.145877907063399</v>
+        <v>0.1446322546154862</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1987207135146536</v>
+        <v>0.1993207576612478</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>100</v>
@@ -4551,19 +4551,19 @@
         <v>111487</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>93202</v>
+        <v>92735</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>133604</v>
+        <v>132937</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1353241874961251</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1131294942137521</v>
+        <v>0.112563042640587</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.162169725114151</v>
+        <v>0.1613598230645988</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>224</v>
@@ -4572,19 +4572,19 @@
         <v>244129</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>214477</v>
+        <v>217535</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>274398</v>
+        <v>279159</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1522995283376982</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1338011140379379</v>
+        <v>0.135709243198907</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1711830515154112</v>
+        <v>0.1741529927092002</v>
       </c>
     </row>
     <row r="27">
@@ -4676,19 +4676,19 @@
         <v>2854281</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2808659</v>
+        <v>2803916</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2898738</v>
+        <v>2897401</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8341661578776421</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8208331059233854</v>
+        <v>0.8194471350238296</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8471589330775644</v>
+        <v>0.8467680524131014</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2890</v>
@@ -4697,19 +4697,19 @@
         <v>3115859</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3075683</v>
+        <v>3075593</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3154768</v>
+        <v>3152683</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8774666090020109</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8661523099731465</v>
+        <v>0.8661271599095631</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8884237513159238</v>
+        <v>0.8878365702009164</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5549</v>
@@ -4718,19 +4718,19 @@
         <v>5970140</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5908097</v>
+        <v>5909928</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6023373</v>
+        <v>6030399</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8562177219550016</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8473197714758804</v>
+        <v>0.8475823931239564</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.863852179062813</v>
+        <v>0.8648598947793267</v>
       </c>
     </row>
     <row r="29">
@@ -4747,19 +4747,19 @@
         <v>567436</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>522979</v>
+        <v>524316</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>613058</v>
+        <v>617801</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1658338421223579</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1528410669224357</v>
+        <v>0.1532319475868985</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1791668940766148</v>
+        <v>0.1805528649761702</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>402</v>
@@ -4768,19 +4768,19 @@
         <v>435113</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>396204</v>
+        <v>398289</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>475289</v>
+        <v>475379</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1225333909979891</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1115762486840763</v>
+        <v>0.1121634297990835</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1338476900268535</v>
+        <v>0.133872840090437</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>947</v>
@@ -4789,19 +4789,19 @@
         <v>1002549</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>949316</v>
+        <v>942290</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1064592</v>
+        <v>1062761</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1437822780449984</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1361478209371872</v>
+        <v>0.1351401052206734</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1526802285241198</v>
+        <v>0.1524176068760435</v>
       </c>
     </row>
     <row r="30">
@@ -5137,19 +5137,19 @@
         <v>222238</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>205901</v>
+        <v>205136</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>237508</v>
+        <v>236081</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7618002202497622</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7057988182945663</v>
+        <v>0.7031750978527157</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.814141660288814</v>
+        <v>0.8092497215402924</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>222</v>
@@ -5158,19 +5158,19 @@
         <v>233251</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>217812</v>
+        <v>218886</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>244699</v>
+        <v>246516</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.807928775182941</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.754449901113639</v>
+        <v>0.7581693197322262</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8475807826503855</v>
+        <v>0.8538723630080166</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>425</v>
@@ -5179,19 +5179,19 @@
         <v>455490</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>434192</v>
+        <v>433613</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>474641</v>
+        <v>473774</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7847442831022705</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7480515376814427</v>
+        <v>0.747053641745216</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8177389713610964</v>
+        <v>0.8162458647396982</v>
       </c>
     </row>
     <row r="5">
@@ -5208,19 +5208,19 @@
         <v>69490</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54220</v>
+        <v>55647</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>85827</v>
+        <v>86592</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2381997797502378</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1858583397111861</v>
+        <v>0.1907502784597077</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2942011817054337</v>
+        <v>0.2968249021472844</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>55</v>
@@ -5229,19 +5229,19 @@
         <v>55452</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44004</v>
+        <v>42187</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70891</v>
+        <v>69817</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.192071224817059</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1524192173496141</v>
+        <v>0.1461276369919834</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.245550098886361</v>
+        <v>0.2418306802677738</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>116</v>
@@ -5250,19 +5250,19 @@
         <v>124941</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>105790</v>
+        <v>106657</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>146239</v>
+        <v>146818</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2152557168977295</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1822610286389036</v>
+        <v>0.183754135260302</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2519484623185574</v>
+        <v>0.252946358254784</v>
       </c>
     </row>
     <row r="6">
@@ -5354,19 +5354,19 @@
         <v>430183</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>411699</v>
+        <v>414090</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>445813</v>
+        <v>446682</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8559569971666529</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8191799398818803</v>
+        <v>0.8239357665421425</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8870585792597205</v>
+        <v>0.8887875949203592</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>441</v>
@@ -5375,19 +5375,19 @@
         <v>478612</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>464790</v>
+        <v>464221</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>490729</v>
+        <v>490360</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9149814703956582</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8885573767018308</v>
+        <v>0.8874683931586437</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.938146042943604</v>
+        <v>0.9374393088737066</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>847</v>
@@ -5396,19 +5396,19 @@
         <v>908795</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>886379</v>
+        <v>887267</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>928820</v>
+        <v>931258</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8860593476274911</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8642042782829595</v>
+        <v>0.8650698655490553</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9055836669180697</v>
+        <v>0.9079601889920043</v>
       </c>
     </row>
     <row r="8">
@@ -5425,19 +5425,19 @@
         <v>72392</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>56762</v>
+        <v>55893</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>90876</v>
+        <v>88485</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1440430028333472</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1129414207402795</v>
+        <v>0.1112124050796409</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1808200601181197</v>
+        <v>0.1760642334578575</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>43</v>
@@ -5446,19 +5446,19 @@
         <v>44472</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32355</v>
+        <v>32724</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>58294</v>
+        <v>58863</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08501852960434174</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06185395705639608</v>
+        <v>0.06256069112629339</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1114426232981693</v>
+        <v>0.1125316068413563</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>112</v>
@@ -5467,19 +5467,19 @@
         <v>116864</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>96839</v>
+        <v>94401</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>139280</v>
+        <v>138392</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1139406523725089</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09441633308193027</v>
+        <v>0.09203981100799574</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1357957217170405</v>
+        <v>0.1349301344509447</v>
       </c>
     </row>
     <row r="9">
@@ -5571,19 +5571,19 @@
         <v>266605</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>252358</v>
+        <v>252619</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>278991</v>
+        <v>277908</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8368943520143435</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7921726215978229</v>
+        <v>0.7929910053271303</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8757752469491495</v>
+        <v>0.8723750214778309</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>287</v>
@@ -5592,19 +5592,19 @@
         <v>292186</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>279653</v>
+        <v>278091</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>303159</v>
+        <v>303033</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.868802843531316</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8315373618542965</v>
+        <v>0.8268909622159949</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9014304484530155</v>
+        <v>0.9010549796729371</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>568</v>
@@ -5613,19 +5613,19 @@
         <v>558791</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>539213</v>
+        <v>539509</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>575147</v>
+        <v>575774</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8532808827727087</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8233844689229068</v>
+        <v>0.8238357853708992</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8782567218680853</v>
+        <v>0.8792136841293646</v>
       </c>
     </row>
     <row r="11">
@@ -5642,19 +5642,19 @@
         <v>51960</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>39574</v>
+        <v>40657</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>66207</v>
+        <v>65946</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1631056479856565</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1242247530508505</v>
+        <v>0.1276249785221692</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2078273784021771</v>
+        <v>0.2070089946728698</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -5663,19 +5663,19 @@
         <v>44123</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>33150</v>
+        <v>33276</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56656</v>
+        <v>58218</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.131197156468684</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09856955154698456</v>
+        <v>0.09894502032706286</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1684626381457036</v>
+        <v>0.1731090377840054</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>99</v>
@@ -5684,19 +5684,19 @@
         <v>96083</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>79727</v>
+        <v>79100</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>115661</v>
+        <v>115365</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1467191172272912</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1217432781319147</v>
+        <v>0.1207863158706354</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1766155310770932</v>
+        <v>0.1761642146291008</v>
       </c>
     </row>
     <row r="12">
@@ -5788,19 +5788,19 @@
         <v>295909</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>278189</v>
+        <v>278992</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>309994</v>
+        <v>310658</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7998319398084039</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7519343008982743</v>
+        <v>0.7541059492894494</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8379024184047148</v>
+        <v>0.839696908211488</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>306</v>
@@ -5809,19 +5809,19 @@
         <v>332904</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>316446</v>
+        <v>317295</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>345103</v>
+        <v>345727</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8595882193646806</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8170934606753341</v>
+        <v>0.8192856417990834</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8910884259786166</v>
+        <v>0.8926982867403288</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>592</v>
@@ -5830,19 +5830,19 @@
         <v>628813</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>607484</v>
+        <v>605168</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>649382</v>
+        <v>648337</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8303934227799393</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8022271395343162</v>
+        <v>0.7991687666010248</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8575557726911769</v>
+        <v>0.8561762379396259</v>
       </c>
     </row>
     <row r="14">
@@ -5859,19 +5859,19 @@
         <v>74055</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>59970</v>
+        <v>59306</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>91775</v>
+        <v>90972</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2001680601915961</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1620975815952852</v>
+        <v>0.160303091788512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2480656991017258</v>
+        <v>0.2458940507105511</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -5880,19 +5880,19 @@
         <v>54379</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42180</v>
+        <v>41556</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70837</v>
+        <v>69988</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1404117806353194</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1089115740213835</v>
+        <v>0.1073017132596712</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1829065393246661</v>
+        <v>0.1807143582009167</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>120</v>
@@ -5901,19 +5901,19 @@
         <v>128434</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>107865</v>
+        <v>108910</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>149763</v>
+        <v>152079</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1696065772200607</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1424442273088236</v>
+        <v>0.143823762060374</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1977728604656838</v>
+        <v>0.2008312333989751</v>
       </c>
     </row>
     <row r="15">
@@ -6005,19 +6005,19 @@
         <v>193010</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>184356</v>
+        <v>181999</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>200076</v>
+        <v>199394</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9137825714516133</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.872812928029621</v>
+        <v>0.8616503105575234</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9472335555805234</v>
+        <v>0.9440084521849668</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>210</v>
@@ -6026,19 +6026,19 @@
         <v>205549</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>197399</v>
+        <v>196013</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>211666</v>
+        <v>211240</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9403526423211006</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9030687845108419</v>
+        <v>0.896726650561859</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9683388164714619</v>
+        <v>0.9663878690737849</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>404</v>
@@ -6047,19 +6047,19 @@
         <v>398559</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>386041</v>
+        <v>387399</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>408255</v>
+        <v>408016</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9272952843482493</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8981700948490102</v>
+        <v>0.9013312699052221</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9498533183558051</v>
+        <v>0.9492985201883932</v>
       </c>
     </row>
     <row r="17">
@@ -6076,19 +6076,19 @@
         <v>18211</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11145</v>
+        <v>11827</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26865</v>
+        <v>29222</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08621742854838671</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05276644441947695</v>
+        <v>0.05599154781503331</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1271870719703792</v>
+        <v>0.1383496894424768</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -6097,19 +6097,19 @@
         <v>13038</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6921</v>
+        <v>7347</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21188</v>
+        <v>22574</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05964735767889939</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03166118352853811</v>
+        <v>0.03361213092621502</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09693121548915805</v>
+        <v>0.1032733494381411</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -6118,19 +6118,19 @@
         <v>31249</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21553</v>
+        <v>21792</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43767</v>
+        <v>42409</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07270471565175078</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05014668164419488</v>
+        <v>0.05070147981160687</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1018299051509898</v>
+        <v>0.09866873009477808</v>
       </c>
     </row>
     <row r="18">
@@ -6222,19 +6222,19 @@
         <v>161463</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>144184</v>
+        <v>145803</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>176057</v>
+        <v>178094</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6136412603406078</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5479710118361812</v>
+        <v>0.5541250854876554</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6691039191343364</v>
+        <v>0.676846650337018</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>170</v>
@@ -6243,19 +6243,19 @@
         <v>177583</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>160913</v>
+        <v>161736</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>192428</v>
+        <v>193544</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6526298146598791</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5913672564368391</v>
+        <v>0.594393741917546</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7071868942087239</v>
+        <v>0.711289973493092</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>331</v>
@@ -6264,19 +6264,19 @@
         <v>339046</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>316381</v>
+        <v>315637</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>361269</v>
+        <v>361427</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6334625972219585</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5911160837778514</v>
+        <v>0.5897260325920772</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6749840901562719</v>
+        <v>0.6752786301440058</v>
       </c>
     </row>
     <row r="20">
@@ -6293,19 +6293,19 @@
         <v>101660</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>87066</v>
+        <v>85029</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>118939</v>
+        <v>117320</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3863587396593922</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3308960808656636</v>
+        <v>0.3231533496629826</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4520289881638188</v>
+        <v>0.445874914512345</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>92</v>
@@ -6314,19 +6314,19 @@
         <v>94520</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>79675</v>
+        <v>78559</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>111190</v>
+        <v>110367</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3473701853401208</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2928131057912761</v>
+        <v>0.288710026506908</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4086327435631613</v>
+        <v>0.4056062580824539</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>190</v>
@@ -6335,19 +6335,19 @@
         <v>196180</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>173957</v>
+        <v>173799</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>218845</v>
+        <v>219589</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3665374027780414</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3250159098437281</v>
+        <v>0.3247213698559943</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4088839162221486</v>
+        <v>0.4102739674079228</v>
       </c>
     </row>
     <row r="21">
@@ -6439,19 +6439,19 @@
         <v>471495</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>447398</v>
+        <v>444351</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>495207</v>
+        <v>493542</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7222896906911838</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6853756611152472</v>
+        <v>0.6807077783854857</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7586146409470933</v>
+        <v>0.7560635789562321</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>483</v>
@@ -6460,19 +6460,19 @@
         <v>520977</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>496992</v>
+        <v>499246</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>543905</v>
+        <v>544518</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7548393594412386</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7200884167342656</v>
+        <v>0.7233534999708207</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.788060839234898</v>
+        <v>0.7889482435735423</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>904</v>
@@ -6481,19 +6481,19 @@
         <v>992471</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>956469</v>
+        <v>958250</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1027023</v>
+        <v>1024678</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7390178147962184</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7122102647761516</v>
+        <v>0.7135361202475203</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7647466202433529</v>
+        <v>0.7630003126252614</v>
       </c>
     </row>
     <row r="23">
@@ -6510,19 +6510,19 @@
         <v>181283</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>157571</v>
+        <v>159236</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>205380</v>
+        <v>208427</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2777103093088162</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2413853590529067</v>
+        <v>0.243936421043768</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3146243388847528</v>
+        <v>0.3192922216145143</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>162</v>
@@ -6531,19 +6531,19 @@
         <v>169205</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>146277</v>
+        <v>145664</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>193190</v>
+        <v>190936</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2451606405587614</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2119391607651019</v>
+        <v>0.2110517564264569</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2799115832657343</v>
+        <v>0.2766465000291791</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>318</v>
@@ -6552,19 +6552,19 @@
         <v>350488</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>315936</v>
+        <v>318281</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>386490</v>
+        <v>384709</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2609821852037816</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.235253379756647</v>
+        <v>0.2369996873747383</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2877897352238482</v>
+        <v>0.2864638797524796</v>
       </c>
     </row>
     <row r="24">
@@ -6656,19 +6656,19 @@
         <v>670402</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>650973</v>
+        <v>649784</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>689049</v>
+        <v>686946</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8621469128680148</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8371606644134758</v>
+        <v>0.8356321651919696</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8861267012473145</v>
+        <v>0.883422866847596</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>647</v>
@@ -6677,19 +6677,19 @@
         <v>709729</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>688477</v>
+        <v>687344</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>729534</v>
+        <v>729198</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8629322015925461</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8370925858580116</v>
+        <v>0.8357146919166244</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8870124219901268</v>
+        <v>0.8866036199362434</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1293</v>
@@ -6698,19 +6698,19 @@
         <v>1380131</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1352221</v>
+        <v>1352408</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1407321</v>
+        <v>1406727</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8625505670282032</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8451073624518913</v>
+        <v>0.8452246165953911</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8795434569898384</v>
+        <v>0.8791726431294381</v>
       </c>
     </row>
     <row r="26">
@@ -6727,19 +6727,19 @@
         <v>107194</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>88547</v>
+        <v>90650</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>126623</v>
+        <v>127812</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1378530871319852</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1138732987526858</v>
+        <v>0.1165771331524042</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1628393355865242</v>
+        <v>0.1643678348080307</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>105</v>
@@ -6748,19 +6748,19 @@
         <v>112733</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>92928</v>
+        <v>93264</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>133985</v>
+        <v>135118</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1370677984074538</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1129875780098727</v>
+        <v>0.1133963800637565</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1629074141419883</v>
+        <v>0.1642853080833755</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>208</v>
@@ -6769,19 +6769,19 @@
         <v>219927</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>192737</v>
+        <v>193331</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>247837</v>
+        <v>247650</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1374494329717968</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1204565430101616</v>
+        <v>0.1208273568705619</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1548926375481086</v>
+        <v>0.1547753834046089</v>
       </c>
     </row>
     <row r="27">
@@ -6873,19 +6873,19 @@
         <v>2711305</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2662698</v>
+        <v>2657617</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2759771</v>
+        <v>2757977</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8003735379926128</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7860248371076513</v>
+        <v>0.7845249070426741</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8146805223479382</v>
+        <v>0.8141507883786339</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2766</v>
@@ -6894,19 +6894,19 @@
         <v>2950790</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2906665</v>
+        <v>2904354</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2995158</v>
+        <v>2992061</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8338598545921787</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8213906501999677</v>
+        <v>0.8207376027752409</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8463978260736812</v>
+        <v>0.8455225564596968</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5364</v>
@@ -6915,19 +6915,19 @@
         <v>5662096</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5591396</v>
+        <v>5595084</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5719945</v>
+        <v>5723529</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8174821071399987</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8072745826193918</v>
+        <v>0.8078070045467235</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8258342279724606</v>
+        <v>0.8263516886496638</v>
       </c>
     </row>
     <row r="29">
@@ -6944,19 +6944,19 @@
         <v>676245</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>627779</v>
+        <v>629573</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>724852</v>
+        <v>729933</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1996264620073872</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1853194776520616</v>
+        <v>0.1858492116213662</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2139751628923487</v>
+        <v>0.2154750929573258</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>567</v>
@@ -6965,19 +6965,19 @@
         <v>587922</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>543554</v>
+        <v>546651</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>632047</v>
+        <v>634358</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1661401454078213</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1536021739263189</v>
+        <v>0.1544774435403034</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1786093498000323</v>
+        <v>0.1792623972247595</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1194</v>
@@ -6986,19 +6986,19 @@
         <v>1264167</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1206318</v>
+        <v>1202734</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1334867</v>
+        <v>1331179</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1825178928600013</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1741657720275394</v>
+        <v>0.1736483113503363</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1927254173806082</v>
+        <v>0.1921929954532765</v>
       </c>
     </row>
     <row r="30">
